--- a/encodingTimeSmallSelectivityLargeMem.xlsx
+++ b/encodingTimeSmallSelectivityLargeMem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BF8D9F-40EF-470A-AEA0-9AAE6C4A4EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770A528A-76ED-4B44-BD95-BB5866EB05F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="0" windowWidth="15525" windowHeight="11385" activeTab="3" xr2:uid="{CEA5A6E5-86A4-4F5D-93DF-4A08F1169578}"/>
+    <workbookView xWindow="435" yWindow="345" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{CEA5A6E5-86A4-4F5D-93DF-4A08F1169578}"/>
   </bookViews>
   <sheets>
     <sheet name="uniform" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <t>RLE</t>
   </si>
@@ -55,18 +55,6 @@
   </si>
   <si>
     <t>HYBRID_COLUMNAR</t>
-  </si>
-  <si>
-    <t>cardinality: 10</t>
-  </si>
-  <si>
-    <t>cardinality: 100</t>
-  </si>
-  <si>
-    <t>cardinality: 1000</t>
-  </si>
-  <si>
-    <t>cardinality: 10000</t>
   </si>
 </sst>
 </file>
@@ -163,7 +151,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per cardinality</a:t>
+              <a:t>Encoding</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>performance [uniform]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -242,24 +238,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -328,24 +325,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -414,24 +412,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -500,24 +499,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -586,24 +586,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -672,24 +673,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -764,24 +766,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>uniform!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1160,7 +1163,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per cardinality</a:t>
+              <a:t>Encoding performance [normal]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1239,24 +1242,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1325,24 +1329,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1411,24 +1416,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1497,24 +1503,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1583,24 +1590,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1669,24 +1677,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1761,24 +1770,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>normal!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2156,8 +2166,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per cardinality</a:t>
+              <a:t>Encoding performance</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> [cardinality 1]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2235,24 +2250,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2321,24 +2337,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2407,24 +2424,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2493,24 +2511,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2579,24 +2598,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2665,24 +2685,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2757,24 +2778,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 1'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3152,7 +3174,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Encoding performance per cardinality</a:t>
+              <a:t>Encoding performance [exponential 2]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3231,24 +3253,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3317,24 +3340,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3403,24 +3427,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3489,24 +3514,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3575,24 +3601,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3661,24 +3688,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3753,24 +3781,25 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'exponential 2'!$B$1:$E$1</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>cardinality: 10</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>cardinality: 100</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>cardinality: 1000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>cardinality: 10000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6749,7 +6778,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6762,17 +6791,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1">
         <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6905,7 +6934,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6918,17 +6947,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1">
         <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7061,7 +7090,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7074,17 +7103,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1">
         <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -7217,7 +7246,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7230,17 +7259,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1">
         <v>10</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+      <c r="E1">
+        <v>10000</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/encodingTimeSmallSelectivityLargeMem.xlsx
+++ b/encodingTimeSmallSelectivityLargeMem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george\Documents\Diplomatiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770A528A-76ED-4B44-BD95-BB5866EB05F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC91FED-E1C6-4C39-9398-481AF6D94D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="345" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{CEA5A6E5-86A4-4F5D-93DF-4A08F1169578}"/>
+    <workbookView minimized="1" xWindow="435" yWindow="345" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{CEA5A6E5-86A4-4F5D-93DF-4A08F1169578}"/>
   </bookViews>
   <sheets>
     <sheet name="uniform" sheetId="1" r:id="rId1"/>
@@ -7246,7 +7246,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
